--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Desktop\ArchivaldoBot-master\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858F2A18-E2E7-4F7E-A95E-D99C64B8039E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42972E9-E320-4262-ABB2-4D002D425714}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="15300" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -70,6 +70,42 @@
   </si>
   <si>
     <t>Figura</t>
+  </si>
+  <si>
+    <t>b.gabrielad@hotmail.com</t>
+  </si>
+  <si>
+    <t>validado</t>
+  </si>
+  <si>
+    <t>21/05/202007:48p.m.;</t>
+  </si>
+  <si>
+    <t>00185653</t>
+  </si>
+  <si>
+    <t>Casa de Bolsa</t>
+  </si>
+  <si>
+    <t>Discresional por asesoria</t>
+  </si>
+  <si>
+    <t>pf</t>
+  </si>
+  <si>
+    <t>guluba94@gmail.com</t>
+  </si>
+  <si>
+    <t>20/05/202011:14a.m.;</t>
+  </si>
+  <si>
+    <t>danrojas963@gmail.com</t>
+  </si>
+  <si>
+    <t>Identificacion ilegible o no se encuente vigente</t>
+  </si>
+  <si>
+    <t>20/05/202004:12p.m.;</t>
   </si>
 </sst>
 </file>
@@ -435,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,8 +540,85 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>207375</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>210584</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3">
+        <v>185631</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>209907</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4">
+        <v>185647</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Desktop\ArchivaldoBot-master\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42972E9-E320-4262-ABB2-4D002D425714}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0193D20-4C4B-4C51-B56A-12CD6357F33D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="15300" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -93,19 +93,34 @@
     <t>pf</t>
   </si>
   <si>
+    <t>danrojas963@gmail.com</t>
+  </si>
+  <si>
+    <t>Identificacion ilegible o no se encuente vigente</t>
+  </si>
+  <si>
+    <t>20/05/202004:12p.m.;</t>
+  </si>
+  <si>
     <t>guluba94@gmail.com</t>
   </si>
   <si>
     <t>20/05/202011:14a.m.;</t>
   </si>
   <si>
-    <t>danrojas963@gmail.com</t>
-  </si>
-  <si>
-    <t>Identificacion ilegible o no se encuente vigente</t>
-  </si>
-  <si>
-    <t>20/05/202004:12p.m.;</t>
+    <t>geillescasm@gbm.com.mx</t>
+  </si>
+  <si>
+    <t>21/05/202010:41a.m.;</t>
+  </si>
+  <si>
+    <t>flor.santillan97@hotmail.com</t>
+  </si>
+  <si>
+    <t>20/05/202012:29p.m.;;20/05/202012:32p.m.;</t>
+  </si>
+  <si>
+    <t>00185637 ; 185642</t>
   </si>
 </sst>
 </file>
@@ -471,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,19 +585,16 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>210584</v>
+        <v>209907</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3">
-        <v>185631</v>
+        <v>185647</v>
       </c>
       <c r="M3" t="s">
         <v>19</v>
@@ -596,19 +608,22 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>209907</v>
+        <v>210584</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
       </c>
       <c r="I4" t="s">
         <v>26</v>
       </c>
       <c r="J4">
-        <v>185647</v>
+        <v>185631</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
@@ -617,6 +632,55 @@
         <v>20</v>
       </c>
       <c r="O4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>212627</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5">
+        <v>185652</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>211531</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" t="s">
         <v>21</v>
       </c>
     </row>
